--- a/Impact_Missing_on_Aggregate_Insights/raw_results/db_missing_zipf_attr9.xlsx
+++ b/Impact_Missing_on_Aggregate_Insights/raw_results/db_missing_zipf_attr9.xlsx
@@ -34,40 +34,40 @@
     <t>readmitted</t>
   </si>
   <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>max_glu_serum</t>
+  </si>
+  <si>
+    <t>admission_type_id</t>
+  </si>
+  <si>
+    <t>diabetesmed</t>
+  </si>
+  <si>
+    <t>change</t>
+  </si>
+  <si>
+    <t>race</t>
+  </si>
+  <si>
     <t>gender</t>
   </si>
   <si>
-    <t>age</t>
+    <t>diag_1</t>
+  </si>
+  <si>
+    <t>a1cresult</t>
   </si>
   <si>
     <t>discharge_disposition_id</t>
   </si>
   <si>
-    <t>admission_type_id</t>
+    <t>insulin</t>
   </si>
   <si>
     <t>admission_source_id</t>
-  </si>
-  <si>
-    <t>max_glu_serum</t>
-  </si>
-  <si>
-    <t>diag_1</t>
-  </si>
-  <si>
-    <t>race</t>
-  </si>
-  <si>
-    <t>insulin</t>
-  </si>
-  <si>
-    <t>change</t>
-  </si>
-  <si>
-    <t>a1cresult</t>
-  </si>
-  <si>
-    <t>diabetesmed</t>
   </si>
   <si>
     <t>number_emergency</t>
@@ -82,10 +82,10 @@
     <t>time_in_hospital</t>
   </si>
   <si>
-    <t>number_diagnoses</t>
+    <t>num_medications</t>
   </si>
   <si>
-    <t>num_medications</t>
+    <t>number_diagnoses</t>
   </si>
   <si>
     <t>num_lab_procedures</t>
@@ -498,7 +498,7 @@
         <v>26</v>
       </c>
       <c r="E2">
-        <v>1.329762882544372</v>
+        <v>1.305318629005046</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -515,7 +515,7 @@
         <v>26</v>
       </c>
       <c r="E3">
-        <v>1.321756076818997</v>
+        <v>1.297237615862483</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -532,7 +532,7 @@
         <v>27</v>
       </c>
       <c r="E4">
-        <v>1.296014536821898</v>
+        <v>1.257744371466159</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -549,7 +549,7 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1.283932177682765</v>
+        <v>1.241409024653609</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -566,7 +566,7 @@
         <v>27</v>
       </c>
       <c r="E6">
-        <v>1.244707103959758</v>
+        <v>1.195228609334394</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -577,13 +577,13 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E7">
-        <v>1.239146428380336</v>
+        <v>1.185325684204344</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -594,13 +594,13 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8">
-        <v>1.234341902552577</v>
+        <v>1.178910729646047</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -611,13 +611,13 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
       </c>
       <c r="E9">
-        <v>1.231191957695273</v>
+        <v>1.170038204112555</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -628,13 +628,13 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1.231010996593098</v>
+        <v>1.164824007969451</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -645,13 +645,13 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1.2294562548122</v>
+        <v>1.164667046888427</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -662,13 +662,13 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E12">
-        <v>1.224744871391589</v>
+        <v>1.163613986228807</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -679,13 +679,13 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E13">
-        <v>1.224744871391589</v>
+        <v>1.161676980219609</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -696,13 +696,13 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
         <v>27</v>
       </c>
       <c r="E14">
-        <v>1.224744871391589</v>
+        <v>1.161394510621746</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -713,13 +713,13 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>27</v>
       </c>
       <c r="E15">
-        <v>1.223110788113652</v>
+        <v>1.154700538379251</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -730,13 +730,13 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
         <v>27</v>
       </c>
       <c r="E16">
-        <v>1.21736075717708</v>
+        <v>1.154700538379251</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -747,13 +747,13 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E17">
-        <v>1.210388906782402</v>
+        <v>1.154700538379251</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -764,13 +764,13 @@
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E18">
-        <v>1.209955149328186</v>
+        <v>1.145881092548817</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -781,13 +781,13 @@
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E19">
-        <v>1.189927296587359</v>
+        <v>1.13286166967929</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -804,7 +804,7 @@
         <v>28</v>
       </c>
       <c r="E20">
-        <v>1.131437908573206</v>
+        <v>1.097274029906733</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -821,7 +821,7 @@
         <v>28</v>
       </c>
       <c r="E21">
-        <v>1.033845924669212</v>
+        <v>0.9825372751600916</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -832,13 +832,13 @@
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D22" t="s">
         <v>28</v>
       </c>
       <c r="E22">
-        <v>1.03066708150401</v>
+        <v>0.9787096827705548</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -849,13 +849,13 @@
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D23" t="s">
         <v>28</v>
       </c>
       <c r="E23">
-        <v>1.029027172242745</v>
+        <v>0.9767654022322548</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -872,7 +872,7 @@
         <v>28</v>
       </c>
       <c r="E24">
-        <v>1.027355279462838</v>
+        <v>0.9744180604332567</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -889,7 +889,7 @@
         <v>29</v>
       </c>
       <c r="E25">
-        <v>1.019633477933721</v>
+        <v>0.9656419660730233</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -906,7 +906,7 @@
         <v>29</v>
       </c>
       <c r="E26">
-        <v>1.019633477933721</v>
+        <v>0.9656419660730233</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -923,7 +923,7 @@
         <v>29</v>
       </c>
       <c r="E27">
-        <v>1.019633477933721</v>
+        <v>0.9656419660730233</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -934,13 +934,13 @@
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D28" t="s">
         <v>29</v>
       </c>
       <c r="E28">
-        <v>1.019633477933721</v>
+        <v>0.9656419660730233</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -957,7 +957,7 @@
         <v>29</v>
       </c>
       <c r="E29">
-        <v>1.019633477933721</v>
+        <v>0.9656419660730233</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -974,7 +974,7 @@
         <v>29</v>
       </c>
       <c r="E30">
-        <v>1.019633477933721</v>
+        <v>0.9656419660730233</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -991,7 +991,7 @@
         <v>29</v>
       </c>
       <c r="E31">
-        <v>1.019633477933721</v>
+        <v>0.9656419660730233</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1002,13 +1002,13 @@
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D32" t="s">
         <v>29</v>
       </c>
       <c r="E32">
-        <v>1.019633477933721</v>
+        <v>0.9656419660730233</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1025,7 +1025,7 @@
         <v>28</v>
       </c>
       <c r="E33">
-        <v>0.9932952519597031</v>
+        <v>0.9351842687032762</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1042,7 +1042,7 @@
         <v>27</v>
       </c>
       <c r="E34">
-        <v>0.781997913889282</v>
+        <v>0.7655807901494429</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1059,7 +1059,7 @@
         <v>27</v>
       </c>
       <c r="E35">
-        <v>0.725289707529327</v>
+        <v>0.7354783686908937</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1076,7 +1076,7 @@
         <v>27</v>
       </c>
       <c r="E36">
-        <v>0.7146193722505075</v>
+        <v>0.7284496226045772</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1093,7 +1093,7 @@
         <v>27</v>
       </c>
       <c r="E37">
-        <v>0.7136156611425768</v>
+        <v>0.6373952366251463</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1110,7 +1110,7 @@
         <v>27</v>
       </c>
       <c r="E38">
-        <v>0.6844211188181752</v>
+        <v>0.6045669239225426</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1118,16 +1118,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C39" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D39" t="s">
         <v>27</v>
       </c>
       <c r="E39">
-        <v>0.6210327676891165</v>
+        <v>0.5997364375010102</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1135,7 +1135,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C40" t="s">
         <v>18</v>
@@ -1144,7 +1144,7 @@
         <v>27</v>
       </c>
       <c r="E40">
-        <v>0.6075911987670977</v>
+        <v>0.590742300562017</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1152,16 +1152,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C41" t="s">
         <v>18</v>
       </c>
       <c r="D41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E41">
-        <v>0.5973354571965124</v>
+        <v>0.5661248051913369</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1169,16 +1169,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C42" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D42" t="s">
         <v>27</v>
       </c>
       <c r="E42">
-        <v>0.5970223141259935</v>
+        <v>0.5351819812796575</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1186,7 +1186,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C43" t="s">
         <v>18</v>
@@ -1195,7 +1195,7 @@
         <v>27</v>
       </c>
       <c r="E43">
-        <v>0.5826133704596381</v>
+        <v>0.5302871563487476</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1203,16 +1203,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C44" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D44" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E44">
-        <v>0.5526584399617046</v>
+        <v>0.5300151229298568</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1220,16 +1220,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C45" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D45" t="s">
         <v>27</v>
       </c>
       <c r="E45">
-        <v>0.5505693925999088</v>
+        <v>0.5194560567532861</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1237,16 +1237,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C46" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E46">
-        <v>0.5487824274936486</v>
+        <v>0.5168514654555596</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1254,7 +1254,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C47" t="s">
         <v>20</v>
@@ -1263,7 +1263,7 @@
         <v>27</v>
       </c>
       <c r="E47">
-        <v>0.5376550901549688</v>
+        <v>0.5142376119880563</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1271,16 +1271,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C48" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D48" t="s">
         <v>27</v>
       </c>
       <c r="E48">
-        <v>0.534764294506218</v>
+        <v>0.5113099925649136</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1288,16 +1288,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C49" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D49" t="s">
         <v>27</v>
       </c>
       <c r="E49">
-        <v>0.5291107040128694</v>
+        <v>0.5071942459200208</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1305,16 +1305,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D50" t="s">
         <v>27</v>
       </c>
       <c r="E50">
-        <v>0.5284498644708495</v>
+        <v>0.4796512894563343</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1322,16 +1322,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C51" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D51" t="s">
         <v>27</v>
       </c>
       <c r="E51">
-        <v>0.5184846874577507</v>
+        <v>0.4789777689036451</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1339,16 +1339,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D52" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E52">
-        <v>0.5108759574416875</v>
+        <v>0.4737226462181284</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1356,7 +1356,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C53" t="s">
         <v>20</v>
@@ -1365,7 +1365,7 @@
         <v>27</v>
       </c>
       <c r="E53">
-        <v>0.4843348372564528</v>
+        <v>0.4615564844004689</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1373,16 +1373,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D54" t="s">
         <v>27</v>
       </c>
       <c r="E54">
-        <v>0.4800985790324578</v>
+        <v>0.4599120727792746</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1390,7 +1390,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C55" t="s">
         <v>20</v>
@@ -1399,7 +1399,7 @@
         <v>27</v>
       </c>
       <c r="E55">
-        <v>0.4705787527762813</v>
+        <v>0.4542167486175337</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1407,16 +1407,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D56" t="s">
         <v>27</v>
       </c>
       <c r="E56">
-        <v>0.4628861262680843</v>
+        <v>0.4394353744020411</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1424,7 +1424,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C57" t="s">
         <v>19</v>
@@ -1433,7 +1433,7 @@
         <v>27</v>
       </c>
       <c r="E57">
-        <v>0.4608885989624768</v>
+        <v>0.4043931683231878</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1441,7 +1441,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C58" t="s">
         <v>19</v>
@@ -1450,7 +1450,7 @@
         <v>27</v>
       </c>
       <c r="E58">
-        <v>0.4579800898640294</v>
+        <v>0.3966829431137132</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1458,7 +1458,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
         <v>20</v>
@@ -1467,7 +1467,7 @@
         <v>27</v>
       </c>
       <c r="E59">
-        <v>0.4506274892853486</v>
+        <v>0.3963997582763918</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1475,7 +1475,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C60" t="s">
         <v>19</v>
@@ -1484,7 +1484,7 @@
         <v>27</v>
       </c>
       <c r="E60">
-        <v>0.4311131937885756</v>
+        <v>0.3960590171906697</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1492,16 +1492,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C61" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D61" t="s">
         <v>27</v>
       </c>
       <c r="E61">
-        <v>0.4149966532662911</v>
+        <v>0.3934955014703718</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1509,7 +1509,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
         <v>20</v>
@@ -1518,7 +1518,7 @@
         <v>27</v>
       </c>
       <c r="E62">
-        <v>0.4058952547818293</v>
+        <v>0.3927586013554147</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1526,16 +1526,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C63" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D63" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E63">
-        <v>0.3944158472980413</v>
+        <v>0.3870912857362145</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1543,16 +1543,16 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C64" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D64" t="s">
         <v>27</v>
       </c>
       <c r="E64">
-        <v>0.3870369114828745</v>
+        <v>0.3759685645580595</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1560,16 +1560,16 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D65" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E65">
-        <v>0.3830682752181503</v>
+        <v>0.3747870280525223</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1577,7 +1577,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C66" t="s">
         <v>19</v>
@@ -1586,7 +1586,7 @@
         <v>27</v>
       </c>
       <c r="E66">
-        <v>0.382802615181788</v>
+        <v>0.3737412737209255</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1594,7 +1594,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C67" t="s">
         <v>18</v>
@@ -1603,7 +1603,7 @@
         <v>26</v>
       </c>
       <c r="E67">
-        <v>0.3819148166542821</v>
+        <v>0.3725581991907244</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1611,16 +1611,16 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C68" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D68" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E68">
-        <v>0.3788166705682337</v>
+        <v>0.3698001308168195</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1628,16 +1628,16 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C69" t="s">
         <v>18</v>
       </c>
       <c r="D69" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E69">
-        <v>0.3754789136710993</v>
+        <v>0.3649136943472106</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1645,16 +1645,16 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C70" t="s">
         <v>18</v>
       </c>
       <c r="D70" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E70">
-        <v>0.3683851561443187</v>
+        <v>0.3642695536169716</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1662,16 +1662,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C71" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D71" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E71">
-        <v>0.3680177273925467</v>
+        <v>0.3574429717918143</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1679,7 +1679,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C72" t="s">
         <v>19</v>
@@ -1688,7 +1688,7 @@
         <v>27</v>
       </c>
       <c r="E72">
-        <v>0.3569298787467652</v>
+        <v>0.3554093266554554</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1699,13 +1699,13 @@
         <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D73" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E73">
-        <v>0.3433452941062232</v>
+        <v>0.3497914402403638</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1713,7 +1713,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C74" t="s">
         <v>19</v>
@@ -1722,7 +1722,7 @@
         <v>27</v>
       </c>
       <c r="E74">
-        <v>0.3408873413805976</v>
+        <v>0.3435293617149027</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1730,16 +1730,16 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C75" t="s">
         <v>19</v>
       </c>
       <c r="D75" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E75">
-        <v>0.3350452674694605</v>
+        <v>0.3400378296058203</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1747,16 +1747,16 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C76" t="s">
         <v>19</v>
       </c>
       <c r="D76" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E76">
-        <v>0.3294080297225223</v>
+        <v>0.3386104376268089</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1764,16 +1764,16 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C77" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D77" t="s">
         <v>27</v>
       </c>
       <c r="E77">
-        <v>0.3280033641543204</v>
+        <v>0.3229711207330869</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1781,16 +1781,16 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D78" t="s">
         <v>26</v>
       </c>
       <c r="E78">
-        <v>0.3168963306028105</v>
+        <v>0.3098470606535836</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1798,7 +1798,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C79" t="s">
         <v>19</v>
@@ -1807,7 +1807,7 @@
         <v>26</v>
       </c>
       <c r="E79">
-        <v>0.3116620470986201</v>
+        <v>0.306873383399409</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1815,16 +1815,16 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C80" t="s">
         <v>19</v>
       </c>
       <c r="D80" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E80">
-        <v>0.3022129410345616</v>
+        <v>0.3060623298974187</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1832,16 +1832,16 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C81" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D81" t="s">
         <v>26</v>
       </c>
       <c r="E81">
-        <v>0.3012988859210456</v>
+        <v>0.3060459540276926</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1849,16 +1849,16 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D82" t="s">
         <v>27</v>
       </c>
       <c r="E82">
-        <v>0.2981423969999721</v>
+        <v>0.2984440079997104</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1866,16 +1866,16 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C83" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D83" t="s">
         <v>28</v>
       </c>
       <c r="E83">
-        <v>0.2966340629578705</v>
+        <v>0.2977756125519671</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1883,16 +1883,16 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D84" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E84">
-        <v>0.2820727565209114</v>
+        <v>0.295316338934927</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1900,16 +1900,16 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C85" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D85" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E85">
-        <v>0.281583898275941</v>
+        <v>0.2923660798341546</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1917,16 +1917,16 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C86" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D86" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E86">
-        <v>0.2794552524023088</v>
+        <v>0.2877624495420714</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1934,16 +1934,16 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C87" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D87" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E87">
-        <v>0.2755443799881959</v>
+        <v>0.2815322079866152</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1951,16 +1951,16 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C88" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D88" t="s">
         <v>26</v>
       </c>
       <c r="E88">
-        <v>0.2732395140669796</v>
+        <v>0.2775781906053782</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1968,16 +1968,16 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C89" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D89" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E89">
-        <v>0.2589272378506009</v>
+        <v>0.2703735132299113</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1985,16 +1985,16 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C90" t="s">
         <v>18</v>
       </c>
       <c r="D90" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E90">
-        <v>0.2539545811413282</v>
+        <v>0.2669098413162531</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2002,7 +2002,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C91" t="s">
         <v>24</v>
@@ -2011,7 +2011,7 @@
         <v>27</v>
       </c>
       <c r="E91">
-        <v>0.2517991075903924</v>
+        <v>0.2608834116744465</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2019,16 +2019,16 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C92" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D92" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E92">
-        <v>0.2499024009332316</v>
+        <v>0.2590541905419312</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2036,16 +2036,16 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C93" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D93" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E93">
-        <v>0.2476416468273236</v>
+        <v>0.2507606760122382</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2053,16 +2053,16 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C94" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D94" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E94">
-        <v>0.2472447742387925</v>
+        <v>0.2497656617859665</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2070,16 +2070,16 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C95" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D95" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E95">
-        <v>0.2468153033903706</v>
+        <v>0.2453943450320024</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2087,16 +2087,16 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C96" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D96" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E96">
-        <v>0.2459212105863089</v>
+        <v>0.2423779083007113</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2104,16 +2104,16 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C97" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D97" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E97">
-        <v>0.2455672346161141</v>
+        <v>0.242132153599973</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2124,13 +2124,13 @@
         <v>17</v>
       </c>
       <c r="C98" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D98" t="s">
         <v>27</v>
       </c>
       <c r="E98">
-        <v>0.2369141051978446</v>
+        <v>0.2374250542184972</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2138,7 +2138,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C99" t="s">
         <v>19</v>
@@ -2147,7 +2147,7 @@
         <v>26</v>
       </c>
       <c r="E99">
-        <v>0.2314431559988754</v>
+        <v>0.2352390605913276</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2155,16 +2155,16 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C100" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D100" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E100">
-        <v>0.2295198953896041</v>
+        <v>0.2346911540878024</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2172,16 +2172,16 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C101" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D101" t="s">
         <v>26</v>
       </c>
       <c r="E101">
-        <v>0.2294847405335549</v>
+        <v>0.2335185929457956</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2189,16 +2189,16 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C102" t="s">
         <v>24</v>
       </c>
       <c r="D102" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E102">
-        <v>0.2281899834210963</v>
+        <v>0.2306795526360118</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2206,16 +2206,16 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C103" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D103" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E103">
-        <v>0.2242044691808426</v>
+        <v>0.2303043958280244</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2223,16 +2223,16 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C104" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D104" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E104">
-        <v>0.2224441671829506</v>
+        <v>0.2287349847331639</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2246,10 +2246,10 @@
         <v>20</v>
       </c>
       <c r="D105" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E105">
-        <v>0.221822600754809</v>
+        <v>0.2271848071394995</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2266,7 +2266,7 @@
         <v>27</v>
       </c>
       <c r="E106">
-        <v>0.2210773544518511</v>
+        <v>0.2245633590754307</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2274,7 +2274,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C107" t="s">
         <v>18</v>
@@ -2283,7 +2283,7 @@
         <v>28</v>
       </c>
       <c r="E107">
-        <v>0.2208407120593611</v>
+        <v>0.2160625914264533</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2291,16 +2291,16 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D108" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E108">
-        <v>0.2197021516042707</v>
+        <v>0.2134324809117617</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2308,16 +2308,16 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C109" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D109" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E109">
-        <v>0.2193204948009316</v>
+        <v>0.2133727365400964</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2325,16 +2325,16 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C110" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D110" t="s">
         <v>28</v>
       </c>
       <c r="E110">
-        <v>0.2182618987822462</v>
+        <v>0.2133035230541863</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2342,16 +2342,16 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C111" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D111" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E111">
-        <v>0.2180164991553957</v>
+        <v>0.2098874833556482</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2359,16 +2359,16 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C112" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D112" t="s">
         <v>28</v>
       </c>
       <c r="E112">
-        <v>0.2163105041538958</v>
+        <v>0.2070215464859228</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2376,16 +2376,16 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C113" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D113" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E113">
-        <v>0.2156051371772376</v>
+        <v>0.2028420607517529</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2393,7 +2393,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C114" t="s">
         <v>20</v>
@@ -2402,7 +2402,7 @@
         <v>28</v>
       </c>
       <c r="E114">
-        <v>0.2120451219515398</v>
+        <v>0.2000815996835921</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2410,16 +2410,16 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D115" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E115">
-        <v>0.2117689036262497</v>
+        <v>0.1967410350597689</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2427,16 +2427,16 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C116" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D116" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E116">
-        <v>0.2104303017394748</v>
+        <v>0.1963471793314307</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2444,16 +2444,16 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C117" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D117" t="s">
         <v>26</v>
       </c>
       <c r="E117">
-        <v>0.2098659624288466</v>
+        <v>0.1956679133049956</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2461,16 +2461,16 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C118" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D118" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E118">
-        <v>0.2067837616172905</v>
+        <v>0.1956564153484222</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2478,16 +2478,16 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D119" t="s">
         <v>26</v>
       </c>
       <c r="E119">
-        <v>0.2043963257425592</v>
+        <v>0.1952484435380202</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2495,16 +2495,16 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C120" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D120" t="s">
         <v>28</v>
       </c>
       <c r="E120">
-        <v>0.2024245220522013</v>
+        <v>0.1950498137990652</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2512,16 +2512,16 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C121" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D121" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E121">
-        <v>0.2015087966749225</v>
+        <v>0.1945546889885472</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2529,16 +2529,16 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C122" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D122" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E122">
-        <v>0.1998411680008484</v>
+        <v>0.1945546889885472</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2546,16 +2546,16 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C123" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D123" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E123">
-        <v>0.1981773646462284</v>
+        <v>0.1945546889885472</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2563,16 +2563,16 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C124" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D124" t="s">
         <v>29</v>
       </c>
       <c r="E124">
-        <v>0.1978392385913083</v>
+        <v>0.1945546889885472</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2580,16 +2580,16 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C125" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D125" t="s">
         <v>29</v>
       </c>
       <c r="E125">
-        <v>0.1978392385913083</v>
+        <v>0.1945546889885472</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2597,16 +2597,16 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C126" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D126" t="s">
         <v>29</v>
       </c>
       <c r="E126">
-        <v>0.1978392385913083</v>
+        <v>0.1945546889885472</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2614,16 +2614,16 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C127" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D127" t="s">
         <v>29</v>
       </c>
       <c r="E127">
-        <v>0.1978392385913083</v>
+        <v>0.1945546889885472</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2631,16 +2631,16 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C128" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D128" t="s">
         <v>29</v>
       </c>
       <c r="E128">
-        <v>0.1978392385913083</v>
+        <v>0.1945546889885472</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2648,16 +2648,16 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D129" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E129">
-        <v>0.1978392385913083</v>
+        <v>0.1942294756408807</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2665,16 +2665,16 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C130" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D130" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E130">
-        <v>0.1978392385913083</v>
+        <v>0.193851656721887</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2682,16 +2682,16 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C131" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D131" t="s">
         <v>29</v>
       </c>
       <c r="E131">
-        <v>0.1978392385913083</v>
+        <v>0.193737352678527</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2699,16 +2699,16 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C132" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D132" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E132">
-        <v>0.1975986969029043</v>
+        <v>0.193737352678527</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2716,16 +2716,16 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C133" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D133" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E133">
-        <v>0.1960725952929023</v>
+        <v>0.193737352678527</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2733,16 +2733,16 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C134" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D134" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E134">
-        <v>0.1944895429899408</v>
+        <v>0.193737352678527</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2750,16 +2750,16 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C135" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D135" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E135">
-        <v>0.194050748831082</v>
+        <v>0.193737352678527</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2767,16 +2767,16 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C136" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D136" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E136">
-        <v>0.1928766103201264</v>
+        <v>0.193737352678527</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2784,16 +2784,16 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C137" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D137" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E137">
-        <v>0.1927395204967483</v>
+        <v>0.193737352678527</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2801,16 +2801,16 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C138" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D138" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E138">
-        <v>0.1927395204967483</v>
+        <v>0.193737352678527</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2818,16 +2818,16 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C139" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D139" t="s">
         <v>28</v>
       </c>
       <c r="E139">
-        <v>0.1923674131103834</v>
+        <v>0.1929974152711662</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2835,16 +2835,16 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C140" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D140" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E140">
-        <v>0.1921826911146717</v>
+        <v>0.191514985885479</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2852,16 +2852,16 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C141" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D141" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E141">
-        <v>0.1921826911146717</v>
+        <v>0.190859134540399</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2869,16 +2869,16 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C142" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D142" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E142">
-        <v>0.1921826911146717</v>
+        <v>0.1892270206716574</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -2886,16 +2886,16 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C143" t="s">
         <v>21</v>
       </c>
       <c r="D143" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E143">
-        <v>0.1921826911146717</v>
+        <v>0.1883113625850779</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -2903,16 +2903,16 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C144" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D144" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E144">
-        <v>0.1921826911146717</v>
+        <v>0.1878874253996653</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -2920,16 +2920,16 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C145" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D145" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E145">
-        <v>0.1921826911146717</v>
+        <v>0.1878866140758047</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -2937,16 +2937,16 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C146" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D146" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E146">
-        <v>0.1921826911146717</v>
+        <v>0.1878255677790897</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -2954,16 +2954,16 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C147" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D147" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E147">
-        <v>0.1921826911146717</v>
+        <v>0.1857543148233211</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -2971,16 +2971,16 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C148" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D148" t="s">
         <v>28</v>
       </c>
       <c r="E148">
-        <v>0.1898303655937451</v>
+        <v>0.1855515772674129</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -2988,16 +2988,16 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C149" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D149" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E149">
-        <v>0.1896682639482374</v>
+        <v>0.1849779315278112</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3005,16 +3005,16 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C150" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D150" t="s">
         <v>28</v>
       </c>
       <c r="E150">
-        <v>0.1893379379573044</v>
+        <v>0.1845673007335207</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3022,16 +3022,16 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D151" t="s">
         <v>27</v>
       </c>
       <c r="E151">
-        <v>0.1886056633394795</v>
+        <v>0.1830651273936235</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3039,16 +3039,16 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D152" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E152">
-        <v>0.1882281530082162</v>
+        <v>0.1830651273936235</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3056,16 +3056,16 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C153" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D153" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E153">
-        <v>0.1876632539195431</v>
+        <v>0.181874502632385</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3073,16 +3073,16 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C154" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D154" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E154">
-        <v>0.1856079186014174</v>
+        <v>0.1777876106633871</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3090,16 +3090,16 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C155" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D155" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E155">
-        <v>0.1843479913317672</v>
+        <v>0.1775520802404958</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3107,16 +3107,16 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C156" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D156" t="s">
         <v>28</v>
       </c>
       <c r="E156">
-        <v>0.1843154162869975</v>
+        <v>0.1774710611964266</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3124,16 +3124,16 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C157" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D157" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E157">
-        <v>0.1841256851849333</v>
+        <v>0.1756467931576936</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3141,16 +3141,16 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C158" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D158" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E158">
-        <v>0.1819402050289138</v>
+        <v>0.1735906014680334</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3158,16 +3158,16 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C159" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D159" t="s">
         <v>28</v>
       </c>
       <c r="E159">
-        <v>0.1807130484903403</v>
+        <v>0.1729953826489742</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3175,16 +3175,16 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C160" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D160" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E160">
-        <v>0.178420578902443</v>
+        <v>0.1721643188691673</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3192,16 +3192,16 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C161" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D161" t="s">
         <v>28</v>
       </c>
       <c r="E161">
-        <v>0.1770729332924793</v>
+        <v>0.1709072532230518</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3209,7 +3209,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C162" t="s">
         <v>25</v>
@@ -3218,7 +3218,7 @@
         <v>28</v>
       </c>
       <c r="E162">
-        <v>0.1762286183721314</v>
+        <v>0.1687426755509644</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3226,7 +3226,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
         <v>18</v>
@@ -3235,7 +3235,7 @@
         <v>28</v>
       </c>
       <c r="E163">
-        <v>0.175102980432561</v>
+        <v>0.1681278718205146</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3243,7 +3243,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C164" t="s">
         <v>25</v>
@@ -3252,7 +3252,7 @@
         <v>28</v>
       </c>
       <c r="E164">
-        <v>0.174643600417254</v>
+        <v>0.1653335103000465</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3260,16 +3260,16 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C165" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D165" t="s">
         <v>28</v>
       </c>
       <c r="E165">
-        <v>0.1732566152479052</v>
+        <v>0.1623866716051707</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3277,16 +3277,16 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C166" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D166" t="s">
         <v>26</v>
       </c>
       <c r="E166">
-        <v>0.1707898804419274</v>
+        <v>0.1612356519825808</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3294,16 +3294,16 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C167" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D167" t="s">
         <v>28</v>
       </c>
       <c r="E167">
-        <v>0.1687472888683801</v>
+        <v>0.1601631689221897</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3311,16 +3311,16 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C168" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D168" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E168">
-        <v>0.1678725694456235</v>
+        <v>0.1599684486975326</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3328,16 +3328,16 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D169" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E169">
-        <v>0.1667116297359385</v>
+        <v>0.159414385332011</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3345,16 +3345,16 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D170" t="s">
         <v>29</v>
       </c>
       <c r="E170">
-        <v>0.1662817725340963</v>
+        <v>0.159414385332011</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3362,16 +3362,16 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D171" t="s">
         <v>29</v>
       </c>
       <c r="E171">
-        <v>0.1662817725340963</v>
+        <v>0.159414385332011</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3379,16 +3379,16 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D172" t="s">
         <v>29</v>
       </c>
       <c r="E172">
-        <v>0.1662817725340963</v>
+        <v>0.159414385332011</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3396,16 +3396,16 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D173" t="s">
         <v>29</v>
       </c>
       <c r="E173">
-        <v>0.1662817725340963</v>
+        <v>0.159414385332011</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3413,16 +3413,16 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D174" t="s">
         <v>29</v>
       </c>
       <c r="E174">
-        <v>0.1662817725340963</v>
+        <v>0.159414385332011</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3430,16 +3430,16 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D175" t="s">
         <v>29</v>
       </c>
       <c r="E175">
-        <v>0.1662817725340963</v>
+        <v>0.159414385332011</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3447,16 +3447,16 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C176" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D176" t="s">
         <v>29</v>
       </c>
       <c r="E176">
-        <v>0.1662817725340963</v>
+        <v>0.159414385332011</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3464,16 +3464,16 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D177" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E177">
-        <v>0.1662817725340963</v>
+        <v>0.1590323455110091</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3481,16 +3481,16 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C178" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D178" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E178">
-        <v>0.1646227760002366</v>
+        <v>0.1574980239411069</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3498,16 +3498,16 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C179" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D179" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E179">
-        <v>0.1619547345946034</v>
+        <v>0.1574663544047834</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3515,16 +3515,16 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C180" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D180" t="s">
         <v>28</v>
       </c>
       <c r="E180">
-        <v>0.1590967035605661</v>
+        <v>0.1571829523453497</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3532,16 +3532,16 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C181" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D181" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E181">
-        <v>0.1589694324192367</v>
+        <v>0.1559520300150486</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3549,16 +3549,16 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C182" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D182" t="s">
         <v>28</v>
       </c>
       <c r="E182">
-        <v>0.1558611367388345</v>
+        <v>0.152833007434463</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3566,16 +3566,16 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C183" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D183" t="s">
         <v>28</v>
       </c>
       <c r="E183">
-        <v>0.1552065870681404</v>
+        <v>0.1524348263152977</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3583,16 +3583,16 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C184" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D184" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E184">
-        <v>0.154067836448132</v>
+        <v>0.1521857767810551</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3600,16 +3600,16 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C185" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D185" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E185">
-        <v>0.1523626039251971</v>
+        <v>0.1521070318175707</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3617,16 +3617,16 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C186" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D186" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E186">
-        <v>0.1520608144459275</v>
+        <v>0.1515428706828006</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -3637,13 +3637,13 @@
         <v>17</v>
       </c>
       <c r="C187" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D187" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E187">
-        <v>0.1514504018485838</v>
+        <v>0.1515428706828006</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3651,16 +3651,16 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C188" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D188" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E188">
-        <v>0.1511252231986123</v>
+        <v>0.1515428706828006</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3671,13 +3671,13 @@
         <v>17</v>
       </c>
       <c r="C189" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D189" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E189">
-        <v>0.1503688644465359</v>
+        <v>0.1515428706828006</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3685,16 +3685,16 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C190" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D190" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E190">
-        <v>0.1499094434592863</v>
+        <v>0.1515428706828006</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3702,16 +3702,16 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C191" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D191" t="s">
         <v>29</v>
       </c>
       <c r="E191">
-        <v>0.1479141286981511</v>
+        <v>0.1515428706828006</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -3719,16 +3719,16 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C192" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D192" t="s">
         <v>29</v>
       </c>
       <c r="E192">
-        <v>0.1479141286981511</v>
+        <v>0.1515428706828006</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -3736,16 +3736,16 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C193" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D193" t="s">
         <v>29</v>
       </c>
       <c r="E193">
-        <v>0.1479141286981511</v>
+        <v>0.1515428706828006</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -3753,16 +3753,16 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C194" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D194" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E194">
-        <v>0.1479141286981511</v>
+        <v>0.1506782253673667</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -3770,16 +3770,16 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C195" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D195" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E195">
-        <v>0.1479141286981511</v>
+        <v>0.1502343757845746</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -3787,16 +3787,16 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C196" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D196" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E196">
-        <v>0.1479141286981511</v>
+        <v>0.1501207014217217</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -3804,16 +3804,16 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C197" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D197" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E197">
-        <v>0.1479141286981511</v>
+        <v>0.147990137746543</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -3821,16 +3821,16 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C198" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D198" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E198">
-        <v>0.1479141286981511</v>
+        <v>0.1459845040058572</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -3838,16 +3838,16 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C199" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D199" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E199">
-        <v>0.1467854699073975</v>
+        <v>0.1440949326643236</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -3855,16 +3855,16 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C200" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D200" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E200">
-        <v>0.1466118165026844</v>
+        <v>0.1440949326643236</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -3872,16 +3872,16 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C201" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D201" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E201">
-        <v>0.1451393790974898</v>
+        <v>0.1440949326643236</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -3889,16 +3889,16 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C202" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D202" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E202">
-        <v>0.1447275316151469</v>
+        <v>0.1440949326643236</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -3906,16 +3906,16 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C203" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D203" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E203">
-        <v>0.1443895049396497</v>
+        <v>0.1440949326643236</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -3923,7 +3923,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C204" t="s">
         <v>25</v>
@@ -3932,7 +3932,7 @@
         <v>29</v>
       </c>
       <c r="E204">
-        <v>0.143646611925779</v>
+        <v>0.1440949326643236</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -3940,16 +3940,16 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C205" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D205" t="s">
         <v>29</v>
       </c>
       <c r="E205">
-        <v>0.143646611925779</v>
+        <v>0.1440949326643236</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -3957,7 +3957,7 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C206" t="s">
         <v>20</v>
@@ -3966,7 +3966,7 @@
         <v>29</v>
       </c>
       <c r="E206">
-        <v>0.143646611925779</v>
+        <v>0.1440949326643236</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -3974,16 +3974,16 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C207" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D207" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E207">
-        <v>0.143646611925779</v>
+        <v>0.1433386448166175</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -3991,16 +3991,16 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C208" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D208" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E208">
-        <v>0.143646611925779</v>
+        <v>0.1427652672419799</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -4008,16 +4008,16 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C209" t="s">
         <v>22</v>
       </c>
       <c r="D209" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E209">
-        <v>0.143646611925779</v>
+        <v>0.1424481529329485</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4025,16 +4025,16 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C210" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D210" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E210">
-        <v>0.143646611925779</v>
+        <v>0.1422248931373135</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -4042,16 +4042,16 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C211" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D211" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E211">
-        <v>0.143646611925779</v>
+        <v>0.1421233844430815</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4059,16 +4059,16 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C212" t="s">
         <v>21</v>
       </c>
       <c r="D212" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E212">
-        <v>0.1436331299222278</v>
+        <v>0.1380798321121942</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4076,16 +4076,16 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C213" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D213" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E213">
-        <v>0.1435739111103309</v>
+        <v>0.1380778004644148</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4093,16 +4093,16 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C214" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D214" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E214">
-        <v>0.1434168829685499</v>
+        <v>0.1375332751493044</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4110,16 +4110,16 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C215" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D215" t="s">
         <v>28</v>
       </c>
       <c r="E215">
-        <v>0.1433544101449999</v>
+        <v>0.1367401955111774</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4127,16 +4127,16 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C216" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D216" t="s">
         <v>26</v>
       </c>
       <c r="E216">
-        <v>0.1409446613655488</v>
+        <v>0.136331976154609</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4144,16 +4144,16 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C217" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D217" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E217">
-        <v>0.1404493766353566</v>
+        <v>0.136005446957989</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4161,16 +4161,16 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C218" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D218" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E218">
-        <v>0.1402404355132646</v>
+        <v>0.1357767192677203</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4178,16 +4178,16 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C219" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D219" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E219">
-        <v>0.1400321040329139</v>
+        <v>0.1352999542415634</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4195,16 +4195,16 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C220" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D220" t="s">
         <v>28</v>
       </c>
       <c r="E220">
-        <v>0.1392617486517025</v>
+        <v>0.1349364063142571</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4212,7 +4212,7 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C221" t="s">
         <v>24</v>
@@ -4221,7 +4221,7 @@
         <v>28</v>
       </c>
       <c r="E221">
-        <v>0.1386488948595031</v>
+        <v>0.1348917429646316</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4229,16 +4229,16 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C222" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D222" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E222">
-        <v>0.1348063267744756</v>
+        <v>0.1347942729175005</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4246,16 +4246,16 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C223" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D223" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E223">
-        <v>0.1346988982499593</v>
+        <v>0.1343447412888993</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4263,16 +4263,16 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C224" t="s">
         <v>25</v>
       </c>
       <c r="D224" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E224">
-        <v>0.1346504159808227</v>
+        <v>0.1343447412888993</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4280,16 +4280,16 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C225" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D225" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E225">
-        <v>0.1346051001385056</v>
+        <v>0.1343447412888993</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4297,16 +4297,16 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C226" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D226" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E226">
-        <v>0.1335798651626496</v>
+        <v>0.1343447412888993</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4314,16 +4314,16 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C227" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D227" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E227">
-        <v>0.1329923279815585</v>
+        <v>0.1343447412888993</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4331,16 +4331,16 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C228" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D228" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E228">
-        <v>0.1316548643103578</v>
+        <v>0.1343447412888993</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -4348,16 +4348,16 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C229" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D229" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E229">
-        <v>0.1301564861971303</v>
+        <v>0.1343447412888993</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -4365,16 +4365,16 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C230" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D230" t="s">
         <v>29</v>
       </c>
       <c r="E230">
-        <v>0.1286566711771908</v>
+        <v>0.1343447412888993</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -4382,16 +4382,16 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C231" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D231" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E231">
-        <v>0.1286566711771908</v>
+        <v>0.1340843626142404</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -4399,16 +4399,16 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C232" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D232" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E232">
-        <v>0.1286566711771908</v>
+        <v>0.1335002041501663</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -4416,16 +4416,16 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C233" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D233" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E233">
-        <v>0.1286566711771908</v>
+        <v>0.1316495590964673</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -4433,16 +4433,16 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C234" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D234" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E234">
-        <v>0.1286566711771908</v>
+        <v>0.1316409095265872</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -4453,13 +4453,13 @@
         <v>8</v>
       </c>
       <c r="C235" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D235" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E235">
-        <v>0.1286566711771908</v>
+        <v>0.129670771430891</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -4467,16 +4467,16 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C236" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D236" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E236">
-        <v>0.1286566711771908</v>
+        <v>0.1291457622351279</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -4484,16 +4484,16 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C237" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D237" t="s">
         <v>29</v>
       </c>
       <c r="E237">
-        <v>0.1286566711771908</v>
+        <v>0.1288643170229073</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -4501,16 +4501,16 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C238" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D238" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E238">
-        <v>0.1282280283610925</v>
+        <v>0.1288643170229073</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -4518,16 +4518,16 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C239" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D239" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E239">
-        <v>0.1279570870121751</v>
+        <v>0.1288643170229073</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -4535,16 +4535,16 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C240" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D240" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E240">
-        <v>0.1276199663104359</v>
+        <v>0.1288643170229073</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -4552,16 +4552,16 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C241" t="s">
         <v>23</v>
       </c>
       <c r="D241" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E241">
-        <v>0.1272570537320019</v>
+        <v>0.1288643170229073</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -4569,16 +4569,16 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C242" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D242" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E242">
-        <v>0.1263578375935632</v>
+        <v>0.1288643170229073</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -4586,16 +4586,16 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C243" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D243" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E243">
-        <v>0.1231670904137242</v>
+        <v>0.1288643170229073</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -4603,16 +4603,16 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C244" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D244" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E244">
-        <v>0.1227733136097822</v>
+        <v>0.1288643170229073</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -4620,16 +4620,16 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C245" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D245" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E245">
-        <v>0.1222681272838303</v>
+        <v>0.126182216834474</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -4637,16 +4637,16 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C246" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D246" t="s">
         <v>28</v>
       </c>
       <c r="E246">
-        <v>0.1220119395825898</v>
+        <v>0.1259943104691321</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -4654,16 +4654,16 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C247" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D247" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E247">
-        <v>0.1216598292973026</v>
+        <v>0.124175623967737</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -4671,16 +4671,16 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C248" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D248" t="s">
         <v>26</v>
       </c>
       <c r="E248">
-        <v>0.1211848467546541</v>
+        <v>0.1240534835875657</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -4688,16 +4688,16 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C249" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D249" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E249">
-        <v>0.1195933965325638</v>
+        <v>0.1225105509539955</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -4705,16 +4705,16 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C250" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D250" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E250">
-        <v>0.1193663252351766</v>
+        <v>0.1212198525728515</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -4722,16 +4722,16 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C251" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D251" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E251">
-        <v>0.1193153725754756</v>
+        <v>0.1207658868700369</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -4739,16 +4739,16 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C252" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D252" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E252">
-        <v>0.1193153725754756</v>
+        <v>0.1205354287114274</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -4756,16 +4756,16 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C253" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D253" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E253">
-        <v>0.1193153725754756</v>
+        <v>0.1189616304871181</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -4773,16 +4773,16 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C254" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D254" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E254">
-        <v>0.1193153725754756</v>
+        <v>0.118561600031738</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -4790,16 +4790,16 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C255" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D255" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E255">
-        <v>0.1193153725754756</v>
+        <v>0.1184129822412725</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -4807,16 +4807,16 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C256" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D256" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E256">
-        <v>0.1193153725754756</v>
+        <v>0.1179881386199723</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -4824,16 +4824,16 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C257" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D257" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E257">
-        <v>0.1193153725754756</v>
+        <v>0.1169096318502435</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -4841,16 +4841,16 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C258" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D258" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E258">
-        <v>0.1193153725754756</v>
+        <v>0.1162534466213458</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -4858,16 +4858,16 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C259" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D259" t="s">
         <v>28</v>
       </c>
       <c r="E259">
-        <v>0.1182535149910427</v>
+        <v>0.1162354507633403</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -4875,16 +4875,16 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C260" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D260" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E260">
-        <v>0.1178482755342743</v>
+        <v>0.115630291537911</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -4892,16 +4892,16 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C261" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D261" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E261">
-        <v>0.1173250801966776</v>
+        <v>0.115630291537911</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -4909,16 +4909,16 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C262" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D262" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E262">
-        <v>0.1172253654926788</v>
+        <v>0.115630291537911</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -4926,16 +4926,16 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C263" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D263" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E263">
-        <v>0.1155163738850887</v>
+        <v>0.115630291537911</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -4943,16 +4943,16 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C264" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D264" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E264">
-        <v>0.1143311235558423</v>
+        <v>0.115630291537911</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -4960,16 +4960,16 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C265" t="s">
         <v>25</v>
       </c>
       <c r="D265" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E265">
-        <v>0.1121618254529339</v>
+        <v>0.115630291537911</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -4977,16 +4977,16 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C266" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D266" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E266">
-        <v>0.1121157131702416</v>
+        <v>0.115630291537911</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -4994,16 +4994,16 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C267" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D267" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E267">
-        <v>0.1115340004680319</v>
+        <v>0.115630291537911</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -5011,16 +5011,16 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C268" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D268" t="s">
         <v>26</v>
       </c>
       <c r="E268">
-        <v>0.1111464616890261</v>
+        <v>0.115383795018862</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -5028,16 +5028,16 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C269" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D269" t="s">
         <v>26</v>
       </c>
       <c r="E269">
-        <v>0.1109001105793593</v>
+        <v>0.1152420805166663</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -5045,16 +5045,16 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C270" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D270" t="s">
         <v>26</v>
       </c>
       <c r="E270">
-        <v>0.1104573769126189</v>
+        <v>0.1150274554149349</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -5062,16 +5062,16 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C271" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D271" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E271">
-        <v>0.1102844538387128</v>
+        <v>0.11482355647188</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -5079,16 +5079,16 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C272" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D272" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E272">
-        <v>0.1102844538387128</v>
+        <v>0.1137008134217253</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -5096,16 +5096,16 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C273" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D273" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E273">
-        <v>0.1102844538387128</v>
+        <v>0.1125927665711621</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -5116,13 +5116,13 @@
         <v>13</v>
       </c>
       <c r="C274" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D274" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E274">
-        <v>0.1102844538387128</v>
+        <v>0.1109583877695116</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -5130,16 +5130,16 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C275" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D275" t="s">
         <v>29</v>
       </c>
       <c r="E275">
-        <v>0.1102844538387128</v>
+        <v>0.1106741921000262</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -5147,16 +5147,16 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C276" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D276" t="s">
         <v>29</v>
       </c>
       <c r="E276">
-        <v>0.1102844538387128</v>
+        <v>0.1106741921000262</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -5164,16 +5164,16 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C277" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D277" t="s">
         <v>29</v>
       </c>
       <c r="E277">
-        <v>0.1102844538387128</v>
+        <v>0.1106741921000262</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -5181,16 +5181,16 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C278" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D278" t="s">
         <v>29</v>
       </c>
       <c r="E278">
-        <v>0.1102844538387128</v>
+        <v>0.1106741921000262</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -5201,13 +5201,13 @@
         <v>14</v>
       </c>
       <c r="C279" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D279" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E279">
-        <v>0.1092921401610103</v>
+        <v>0.1106741921000262</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -5215,16 +5215,16 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C280" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D280" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E280">
-        <v>0.1088489833053786</v>
+        <v>0.1106741921000262</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -5232,16 +5232,16 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C281" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D281" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E281">
-        <v>0.108389180294497</v>
+        <v>0.1106741921000262</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -5249,16 +5249,16 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C282" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D282" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E282">
-        <v>0.1076261090801181</v>
+        <v>0.1106741921000262</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -5266,16 +5266,16 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C283" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D283" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E283">
-        <v>0.1074194226317064</v>
+        <v>0.1096351664992246</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -5283,16 +5283,16 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C284" t="s">
         <v>23</v>
       </c>
       <c r="D284" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E284">
-        <v>0.1072500536250404</v>
+        <v>0.1093230142670295</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -5300,16 +5300,16 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C285" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D285" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E285">
-        <v>0.1070229484147187</v>
+        <v>0.1084895894326921</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -5317,16 +5317,16 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C286" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D286" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E286">
-        <v>0.1057733574050119</v>
+        <v>0.108389180294497</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -5334,16 +5334,16 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C287" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D287" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E287">
-        <v>0.1054684606375788</v>
+        <v>0.107905132987056</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -5351,16 +5351,16 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C288" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D288" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E288">
-        <v>0.1053144828039129</v>
+        <v>0.1071439248291882</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -5368,16 +5368,16 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C289" t="s">
         <v>22</v>
       </c>
       <c r="D289" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E289">
-        <v>0.1040316869769591</v>
+        <v>0.1066084890925938</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -5385,16 +5385,16 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C290" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D290" t="s">
         <v>26</v>
       </c>
       <c r="E290">
-        <v>0.1031918118443583</v>
+        <v>0.106424639425622</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -5405,13 +5405,13 @@
         <v>13</v>
       </c>
       <c r="C291" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D291" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E291">
-        <v>0.1023492033663751</v>
+        <v>0.1053725973821001</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -5419,16 +5419,16 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C292" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D292" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E292">
-        <v>0.1014653044962616</v>
+        <v>0.1042936756820588</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -5436,16 +5436,16 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C293" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D293" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E293">
-        <v>0.1009934143688083</v>
+        <v>0.1042912273336151</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -5453,16 +5453,16 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C294" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D294" t="s">
         <v>26</v>
       </c>
       <c r="E294">
-        <v>0.1004160932132506</v>
+        <v>0.1034649187396276</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -5470,16 +5470,16 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C295" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D295" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E295">
-        <v>0.100059269706899</v>
+        <v>0.1033180322297142</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -5487,16 +5487,16 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C296" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D296" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E296">
-        <v>0.09966027889135494</v>
+        <v>0.1032033502458057</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -5504,16 +5504,16 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C297" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D297" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E297">
-        <v>0.09966027889135494</v>
+        <v>0.1027126931314884</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -5521,16 +5521,16 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C298" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D298" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E298">
-        <v>0.09966027889135494</v>
+        <v>0.1026831352183759</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -5538,16 +5538,16 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C299" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D299" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E299">
-        <v>0.09966027889135494</v>
+        <v>0.1018208319355374</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -5555,16 +5555,16 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C300" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D300" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E300">
-        <v>0.09966027889135494</v>
+        <v>0.1014327904881885</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -5572,16 +5572,16 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C301" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D301" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E301">
-        <v>0.09966027889135494</v>
+        <v>0.1004719477905344</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -5589,16 +5589,16 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C302" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D302" t="s">
         <v>29</v>
       </c>
       <c r="E302">
-        <v>0.09966027889135494</v>
+        <v>0.09959014617360087</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -5606,16 +5606,16 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C303" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D303" t="s">
         <v>29</v>
       </c>
       <c r="E303">
-        <v>0.09966027889135494</v>
+        <v>0.09959014617360087</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -5623,16 +5623,16 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C304" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D304" t="s">
         <v>29</v>
       </c>
       <c r="E304">
-        <v>0.09901309420184742</v>
+        <v>0.09959014617360087</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -5640,16 +5640,16 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C305" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D305" t="s">
         <v>29</v>
       </c>
       <c r="E305">
-        <v>0.09901309420184742</v>
+        <v>0.09959014617360087</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -5657,16 +5657,16 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C306" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D306" t="s">
         <v>29</v>
       </c>
       <c r="E306">
-        <v>0.09901309420184742</v>
+        <v>0.09959014617360087</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -5674,16 +5674,16 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C307" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D307" t="s">
         <v>29</v>
       </c>
       <c r="E307">
-        <v>0.09901309420184742</v>
+        <v>0.09959014617360087</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -5691,16 +5691,16 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C308" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D308" t="s">
         <v>29</v>
       </c>
       <c r="E308">
-        <v>0.09901309420184742</v>
+        <v>0.09959014617360087</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -5708,16 +5708,16 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C309" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D309" t="s">
         <v>29</v>
       </c>
       <c r="E309">
-        <v>0.09901309420184742</v>
+        <v>0.09959014617360087</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -5725,16 +5725,16 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C310" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D310" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E310">
-        <v>0.09901309420184742</v>
+        <v>0.09795763849460933</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -5742,16 +5742,16 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C311" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D311" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E311">
-        <v>0.09901309420184742</v>
+        <v>0.09787195570032912</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -5759,7 +5759,7 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C312" t="s">
         <v>24</v>
@@ -5768,7 +5768,7 @@
         <v>26</v>
       </c>
       <c r="E312">
-        <v>0.09823904951598121</v>
+        <v>0.09786648364405262</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -5776,16 +5776,16 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C313" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D313" t="s">
         <v>26</v>
       </c>
       <c r="E313">
-        <v>0.09812632399104267</v>
+        <v>0.09775060195403544</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -5793,7 +5793,7 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C314" t="s">
         <v>22</v>
@@ -5802,7 +5802,7 @@
         <v>26</v>
       </c>
       <c r="E314">
-        <v>0.09774218962563666</v>
+        <v>0.09764557820783311</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -5810,16 +5810,16 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C315" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D315" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E315">
-        <v>0.09739444463748456</v>
+        <v>0.09695554505030433</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -5827,16 +5827,16 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C316" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D316" t="s">
         <v>28</v>
       </c>
       <c r="E316">
-        <v>0.09653465771487474</v>
+        <v>0.09504267417249489</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -5844,16 +5844,16 @@
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C317" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D317" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E317">
-        <v>0.09601698525484627</v>
+        <v>0.09449299313188164</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -5861,16 +5861,16 @@
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C318" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D318" t="s">
         <v>28</v>
       </c>
       <c r="E318">
-        <v>0.0953700331050108</v>
+        <v>0.09329955909523344</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -5878,16 +5878,16 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C319" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D319" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E319">
-        <v>0.09405091956114033</v>
+        <v>0.09327314394934207</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -5895,16 +5895,16 @@
         <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C320" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D320" t="s">
         <v>26</v>
       </c>
       <c r="E320">
-        <v>0.09383268468842182</v>
+        <v>0.09298172399404003</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -5912,16 +5912,16 @@
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C321" t="s">
         <v>23</v>
       </c>
       <c r="D321" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E321">
-        <v>0.09370732418239883</v>
+        <v>0.09232362695912245</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -5929,16 +5929,16 @@
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C322" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D322" t="s">
         <v>28</v>
       </c>
       <c r="E322">
-        <v>0.09277427627733174</v>
+        <v>0.09091030614936728</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -5946,16 +5946,16 @@
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C323" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D323" t="s">
         <v>26</v>
       </c>
       <c r="E323">
-        <v>0.09179179367271982</v>
+        <v>0.09056928043671994</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -5963,16 +5963,16 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C324" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D324" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E324">
-        <v>0.09131884157869216</v>
+        <v>0.0905132515575708</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -5980,16 +5980,16 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C325" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D325" t="s">
         <v>28</v>
       </c>
       <c r="E325">
-        <v>0.09112810813162313</v>
+        <v>0.08985934060012285</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -5997,16 +5997,16 @@
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C326" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D326" t="s">
         <v>28</v>
       </c>
       <c r="E326">
-        <v>0.09061971725927638</v>
+        <v>0.08815741164787008</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -6014,16 +6014,16 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C327" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D327" t="s">
         <v>26</v>
       </c>
       <c r="E327">
-        <v>0.0882768156966906</v>
+        <v>0.0864740490113267</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -6031,16 +6031,16 @@
         <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C328" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D328" t="s">
         <v>26</v>
       </c>
       <c r="E328">
-        <v>0.08824268843118849</v>
+        <v>0.08479564847074596</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -6048,16 +6048,16 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C329" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D329" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E329">
-        <v>0.08818413832165976</v>
+        <v>0.08221351705489233</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -6065,16 +6065,16 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C330" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D330" t="s">
         <v>26</v>
       </c>
       <c r="E330">
-        <v>0.08736798484453882</v>
+        <v>0.08133325035819129</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -6082,7 +6082,7 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C331" t="s">
         <v>22</v>
@@ -6091,7 +6091,7 @@
         <v>26</v>
       </c>
       <c r="E331">
-        <v>0.08636774142321704</v>
+        <v>0.07840995460151666</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -6099,16 +6099,16 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C332" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D332" t="s">
         <v>26</v>
       </c>
       <c r="E332">
-        <v>0.08586588319358388</v>
+        <v>0.07771866950417333</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -6116,16 +6116,16 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C333" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D333" t="s">
         <v>28</v>
       </c>
       <c r="E333">
-        <v>0.08575682420144698</v>
+        <v>0.07726393641052864</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -6133,16 +6133,16 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C334" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D334" t="s">
         <v>28</v>
       </c>
       <c r="E334">
-        <v>0.08481420986921458</v>
+        <v>0.07651858080745816</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -6150,16 +6150,16 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C335" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D335" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E335">
-        <v>0.08462355935171922</v>
+        <v>0.07462687608734855</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -6167,16 +6167,16 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C336" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D336" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E336">
-        <v>0.08303086462660353</v>
+        <v>0.07402872602999937</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -6184,16 +6184,16 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C337" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D337" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E337">
-        <v>0.08284967995153632</v>
+        <v>0.0738408536273536</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -6201,16 +6201,16 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C338" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D338" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E338">
-        <v>0.08197080543177769</v>
+        <v>0.07302641333364801</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -6218,16 +6218,16 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C339" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D339" t="s">
         <v>26</v>
       </c>
       <c r="E339">
-        <v>0.07954033844365724</v>
+        <v>0.07008129501468542</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -6235,16 +6235,16 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C340" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D340" t="s">
         <v>26</v>
       </c>
       <c r="E340">
-        <v>0.07833348025390773</v>
+        <v>0.06935037912992981</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -6252,16 +6252,16 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C341" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D341" t="s">
         <v>28</v>
       </c>
       <c r="E341">
-        <v>0.07614461859281763</v>
+        <v>0.06808726518007974</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -6269,16 +6269,16 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C342" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D342" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E342">
-        <v>0.0759769974472891</v>
+        <v>0.0678941794711732</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -6286,16 +6286,16 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C343" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D343" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E343">
-        <v>0.07576072670253119</v>
+        <v>0.0678941794711732</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -6303,16 +6303,16 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C344" t="s">
         <v>23</v>
       </c>
       <c r="D344" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E344">
-        <v>0.0748379355506659</v>
+        <v>0.0678941794711732</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -6320,16 +6320,16 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C345" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D345" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E345">
-        <v>0.07444600406450648</v>
+        <v>0.0678941794711732</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -6337,16 +6337,16 @@
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C346" t="s">
         <v>24</v>
       </c>
       <c r="D346" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E346">
-        <v>0.07112504702011695</v>
+        <v>0.0678941794711732</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -6354,16 +6354,16 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C347" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D347" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E347">
-        <v>0.06975754914421774</v>
+        <v>0.0678941794711732</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -6371,16 +6371,16 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C348" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D348" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E348">
-        <v>0.06964773534940288</v>
+        <v>0.0678941794711732</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -6388,16 +6388,16 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C349" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D349" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E349">
-        <v>0.06907069413245995</v>
+        <v>0.0678941794711732</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -6405,16 +6405,16 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C350" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D350" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E350">
-        <v>0.06793038734530413</v>
+        <v>0.06761712205644371</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -6422,16 +6422,16 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C351" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D351" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E351">
-        <v>0.06705786318743265</v>
+        <v>0.06680706845405039</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -6439,16 +6439,16 @@
         <v>351</v>
       </c>
       <c r="B352" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C352" t="s">
         <v>22</v>
       </c>
       <c r="D352" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E352">
-        <v>0.06705786318743265</v>
+        <v>0.06625564119801625</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -6456,16 +6456,16 @@
         <v>352</v>
       </c>
       <c r="B353" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C353" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D353" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E353">
-        <v>0.06705786318743265</v>
+        <v>0.06554203230825396</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -6473,16 +6473,16 @@
         <v>353</v>
       </c>
       <c r="B354" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C354" t="s">
         <v>24</v>
       </c>
       <c r="D354" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E354">
-        <v>0.06705786318743265</v>
+        <v>0.06504057808363831</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -6490,16 +6490,16 @@
         <v>354</v>
       </c>
       <c r="B355" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C355" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D355" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E355">
-        <v>0.06705786318743265</v>
+        <v>0.06455112221860958</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -6507,16 +6507,16 @@
         <v>355</v>
       </c>
       <c r="B356" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C356" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D356" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E356">
-        <v>0.06705786318743265</v>
+        <v>0.06435457675620733</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -6524,16 +6524,16 @@
         <v>356</v>
       </c>
       <c r="B357" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C357" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D357" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E357">
-        <v>0.06705786318743265</v>
+        <v>0.06202353688486763</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -6541,16 +6541,16 @@
         <v>357</v>
       </c>
       <c r="B358" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C358" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D358" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E358">
-        <v>0.06705786318743265</v>
+        <v>0.0611247892087066</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -6558,16 +6558,16 @@
         <v>358</v>
       </c>
       <c r="B359" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C359" t="s">
         <v>22</v>
       </c>
       <c r="D359" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E359">
-        <v>0.06689409787671612</v>
+        <v>0.06012991434661191</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -6575,16 +6575,16 @@
         <v>359</v>
       </c>
       <c r="B360" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C360" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D360" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E360">
-        <v>0.06617201713939361</v>
+        <v>0.05965356804283987</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -6592,16 +6592,16 @@
         <v>360</v>
       </c>
       <c r="B361" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C361" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D361" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E361">
-        <v>0.06603912275351728</v>
+        <v>0.05961811037372664</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -6609,16 +6609,16 @@
         <v>361</v>
       </c>
       <c r="B362" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C362" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D362" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E362">
-        <v>0.06549533088795192</v>
+        <v>0.05929996025907736</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -6626,16 +6626,16 @@
         <v>362</v>
       </c>
       <c r="B363" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C363" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D363" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E363">
-        <v>0.064648442878361</v>
+        <v>0.05689051671749348</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -6643,16 +6643,16 @@
         <v>363</v>
       </c>
       <c r="B364" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C364" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D364" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E364">
-        <v>0.06370801091361755</v>
+        <v>0.05667338655596865</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -6660,16 +6660,16 @@
         <v>364</v>
       </c>
       <c r="B365" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C365" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D365" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E365">
-        <v>0.06363071544692551</v>
+        <v>0.05667338655596865</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -6677,16 +6677,16 @@
         <v>365</v>
       </c>
       <c r="B366" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C366" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D366" t="s">
         <v>29</v>
       </c>
       <c r="E366">
-        <v>0.06259008566006509</v>
+        <v>0.05667338655596865</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -6694,16 +6694,16 @@
         <v>366</v>
       </c>
       <c r="B367" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C367" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D367" t="s">
         <v>29</v>
       </c>
       <c r="E367">
-        <v>0.06259008566006509</v>
+        <v>0.05667338655596865</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -6711,16 +6711,16 @@
         <v>367</v>
       </c>
       <c r="B368" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C368" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D368" t="s">
         <v>29</v>
       </c>
       <c r="E368">
-        <v>0.06259008566006509</v>
+        <v>0.05667338655596865</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -6728,16 +6728,16 @@
         <v>368</v>
       </c>
       <c r="B369" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C369" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D369" t="s">
         <v>29</v>
       </c>
       <c r="E369">
-        <v>0.06259008566006509</v>
+        <v>0.05667338655596865</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -6745,16 +6745,16 @@
         <v>369</v>
       </c>
       <c r="B370" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C370" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D370" t="s">
         <v>29</v>
       </c>
       <c r="E370">
-        <v>0.06259008566006509</v>
+        <v>0.05667338655596865</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -6762,16 +6762,16 @@
         <v>370</v>
       </c>
       <c r="B371" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C371" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D371" t="s">
         <v>29</v>
       </c>
       <c r="E371">
-        <v>0.06259008566006509</v>
+        <v>0.05667338655596865</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -6779,16 +6779,16 @@
         <v>371</v>
       </c>
       <c r="B372" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C372" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D372" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E372">
-        <v>0.06259008566006509</v>
+        <v>0.05661342985307694</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -6796,16 +6796,16 @@
         <v>372</v>
       </c>
       <c r="B373" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C373" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D373" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E373">
-        <v>0.06259008566006509</v>
+        <v>0.05637594342007293</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -6813,16 +6813,16 @@
         <v>373</v>
       </c>
       <c r="B374" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C374" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D374" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E374">
-        <v>0.0608536119677071</v>
+        <v>0.0520263786783483</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -6830,16 +6830,16 @@
         <v>374</v>
       </c>
       <c r="B375" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C375" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D375" t="s">
         <v>26</v>
       </c>
       <c r="E375">
-        <v>0.05841911473156174</v>
+        <v>0.04880951953701936</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -6847,16 +6847,16 @@
         <v>375</v>
       </c>
       <c r="B376" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C376" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D376" t="s">
         <v>26</v>
       </c>
       <c r="E376">
-        <v>0.05528938292401217</v>
+        <v>0.04873073329049225</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -6864,16 +6864,16 @@
         <v>376</v>
       </c>
       <c r="B377" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C377" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D377" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E377">
-        <v>0.05500322836807764</v>
+        <v>0.04829732592669269</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -6881,7 +6881,7 @@
         <v>377</v>
       </c>
       <c r="B378" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C378" t="s">
         <v>23</v>
@@ -6890,7 +6890,7 @@
         <v>26</v>
       </c>
       <c r="E378">
-        <v>0.05431564212016047</v>
+        <v>0.03589668491281259</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -6901,13 +6901,13 @@
         <v>9</v>
       </c>
       <c r="C379" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D379" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E379">
-        <v>0.0526170271858593</v>
+        <v>0.03220481986759164</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -6915,16 +6915,16 @@
         <v>379</v>
       </c>
       <c r="B380" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C380" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D380" t="s">
         <v>26</v>
       </c>
       <c r="E380">
-        <v>0.05139392839179434</v>
+        <v>0.02991662392886736</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -6932,16 +6932,16 @@
         <v>380</v>
       </c>
       <c r="B381" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C381" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D381" t="s">
         <v>26</v>
       </c>
       <c r="E381">
-        <v>0.04470773665903852</v>
+        <v>0.02962504565280233</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -6949,16 +6949,16 @@
         <v>381</v>
       </c>
       <c r="B382" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C382" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D382" t="s">
         <v>26</v>
       </c>
       <c r="E382">
-        <v>0.04456695288551005</v>
+        <v>0.02435328519581612</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -6966,16 +6966,16 @@
         <v>382</v>
       </c>
       <c r="B383" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C383" t="s">
         <v>25</v>
       </c>
       <c r="D383" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E383">
-        <v>0.04420623243244782</v>
+        <v>0.01414346812472734</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -6983,16 +6983,16 @@
         <v>383</v>
       </c>
       <c r="B384" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C384" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D384" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E384">
-        <v>0.04218380667900234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -7000,16 +7000,16 @@
         <v>384</v>
       </c>
       <c r="B385" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C385" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D385" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E385">
-        <v>0.03284341519623288</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -7020,13 +7020,13 @@
         <v>15</v>
       </c>
       <c r="C386" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D386" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E386">
-        <v>0.02265303969280707</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -7034,10 +7034,10 @@
         <v>386</v>
       </c>
       <c r="B387" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C387" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D387" t="s">
         <v>27</v>
@@ -7051,10 +7051,10 @@
         <v>387</v>
       </c>
       <c r="B388" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C388" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D388" t="s">
         <v>27</v>
@@ -7068,10 +7068,10 @@
         <v>388</v>
       </c>
       <c r="B389" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C389" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D389" t="s">
         <v>27</v>
@@ -7085,10 +7085,10 @@
         <v>389</v>
       </c>
       <c r="B390" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C390" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D390" t="s">
         <v>27</v>
@@ -7102,7 +7102,7 @@
         <v>390</v>
       </c>
       <c r="B391" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C391" t="s">
         <v>21</v>
@@ -7122,7 +7122,7 @@
         <v>14</v>
       </c>
       <c r="C392" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D392" t="s">
         <v>27</v>
@@ -7136,10 +7136,10 @@
         <v>392</v>
       </c>
       <c r="B393" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C393" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D393" t="s">
         <v>27</v>
@@ -7153,10 +7153,10 @@
         <v>393</v>
       </c>
       <c r="B394" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C394" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D394" t="s">
         <v>27</v>
@@ -7170,7 +7170,7 @@
         <v>394</v>
       </c>
       <c r="B395" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C395" t="s">
         <v>25</v>
@@ -7187,7 +7187,7 @@
         <v>395</v>
       </c>
       <c r="B396" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C396" t="s">
         <v>25</v>
@@ -7204,10 +7204,10 @@
         <v>396</v>
       </c>
       <c r="B397" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C397" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D397" t="s">
         <v>27</v>
@@ -7221,10 +7221,10 @@
         <v>397</v>
       </c>
       <c r="B398" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C398" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D398" t="s">
         <v>27</v>
@@ -7238,10 +7238,10 @@
         <v>398</v>
       </c>
       <c r="B399" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C399" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D399" t="s">
         <v>27</v>
@@ -7255,10 +7255,10 @@
         <v>399</v>
       </c>
       <c r="B400" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C400" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D400" t="s">
         <v>27</v>
@@ -7272,10 +7272,10 @@
         <v>400</v>
       </c>
       <c r="B401" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C401" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D401" t="s">
         <v>27</v>
@@ -7289,10 +7289,10 @@
         <v>401</v>
       </c>
       <c r="B402" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C402" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D402" t="s">
         <v>27</v>
@@ -7306,10 +7306,10 @@
         <v>402</v>
       </c>
       <c r="B403" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C403" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D403" t="s">
         <v>27</v>
@@ -7323,10 +7323,10 @@
         <v>403</v>
       </c>
       <c r="B404" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C404" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D404" t="s">
         <v>27</v>
@@ -7340,10 +7340,10 @@
         <v>404</v>
       </c>
       <c r="B405" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C405" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D405" t="s">
         <v>27</v>
@@ -7357,10 +7357,10 @@
         <v>405</v>
       </c>
       <c r="B406" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C406" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D406" t="s">
         <v>27</v>
@@ -7374,7 +7374,7 @@
         <v>406</v>
       </c>
       <c r="B407" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C407" t="s">
         <v>25</v>
@@ -7391,10 +7391,10 @@
         <v>407</v>
       </c>
       <c r="B408" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C408" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D408" t="s">
         <v>27</v>
@@ -7408,10 +7408,10 @@
         <v>408</v>
       </c>
       <c r="B409" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C409" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D409" t="s">
         <v>27</v>
@@ -7425,10 +7425,10 @@
         <v>409</v>
       </c>
       <c r="B410" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C410" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D410" t="s">
         <v>27</v>
@@ -7442,10 +7442,10 @@
         <v>410</v>
       </c>
       <c r="B411" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C411" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D411" t="s">
         <v>27</v>
@@ -7459,10 +7459,10 @@
         <v>411</v>
       </c>
       <c r="B412" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C412" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D412" t="s">
         <v>27</v>
@@ -7476,10 +7476,10 @@
         <v>412</v>
       </c>
       <c r="B413" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C413" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D413" t="s">
         <v>27</v>
@@ -7493,7 +7493,7 @@
         <v>413</v>
       </c>
       <c r="B414" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C414" t="s">
         <v>21</v>
@@ -7510,7 +7510,7 @@
         <v>414</v>
       </c>
       <c r="B415" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C415" t="s">
         <v>21</v>
@@ -7527,10 +7527,10 @@
         <v>415</v>
       </c>
       <c r="B416" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C416" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D416" t="s">
         <v>27</v>
@@ -7544,10 +7544,10 @@
         <v>416</v>
       </c>
       <c r="B417" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C417" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D417" t="s">
         <v>27</v>
